--- a/test-data.xlsx
+++ b/test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaisarthik/Desktop/SECQUOIA/Pharama optimization flowsheet/Pharma-optimization-flowsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702DA69A-33D9-2F45-8102-39459CC7D572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0E1846-E802-DA43-9085-2D0D2B7476D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17200" activeTab="1" xr2:uid="{8BA2DC6A-41BF-4644-ACE4-B5D38AA9FF44}"/>
   </bookViews>
